--- a/outputs/autoaprop.xlsx/autoapropxlsx/IMC.XLSX
+++ b/outputs/autoaprop.xlsx/autoapropxlsx/IMC.XLSX
@@ -336,7 +336,7 @@
     <t>ALEXANDRE FRAGA VIANA</t>
   </si>
   <si>
-    <t>Matr.: 2892</t>
+    <t>Matr.: 2572</t>
   </si>
   <si>
     <t>IMC</t>
